--- a/biology/Biochimie/Richard_Béliveau/Richard_Béliveau.xlsx
+++ b/biology/Biochimie/Richard_Béliveau/Richard_Béliveau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richard_B%C3%A9liveau</t>
+          <t>Richard_Béliveau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard Béliveau, né le 13 mars 1953 à Trois-Rivières au Québec, est titulaire d'un doctorat en biochimie de l'Université Laval[1] et  diplômé au baccalauréat en biologie de l'Université du Québec à Trois-Rivières en 1976. Il  est directeur du laboratoire de Médecine Moléculaire et chercheur au service de neurochirurgie de l'Hôpital Notre-Dame (CHUM). Il était également titulaire de la Chaire de neurochirurgie Claude-Bertrand. Il a participé, comme scientifique, à l'émission Kampaï sur les ondes de Radio-Canada. Il est l'auteur de plusieurs ouvrages de vulgarisation scientifique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Béliveau, né le 13 mars 1953 à Trois-Rivières au Québec, est titulaire d'un doctorat en biochimie de l'Université Laval et  diplômé au baccalauréat en biologie de l'Université du Québec à Trois-Rivières en 1976. Il  est directeur du laboratoire de Médecine Moléculaire et chercheur au service de neurochirurgie de l'Hôpital Notre-Dame (CHUM). Il était également titulaire de la Chaire de neurochirurgie Claude-Bertrand. Il a participé, comme scientifique, à l'émission Kampaï sur les ondes de Radio-Canada. Il est l'auteur de plusieurs ouvrages de vulgarisation scientifique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Richard_B%C3%A9liveau</t>
+          <t>Richard_Béliveau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est professeur titulaire de biochimie à l'Université du Québec à Montréal depuis 1984, où il est titulaire de la Chaire en Prévention et Traitement du Cancer. Depuis 1996, il est directeur du laboratoire de médecine moléculaire de l'hôpital Sainte-Justine[1]. Il est professeur de chirurgie et professeur de physiologie à la faculté de médecine de l'Université de Montréal. Il est également associé au Centre de Prévention du Cancer du département de l'Université McGill. Il est aussi membre du Groupe de Thérapie Expérimentale du Cancer de l'Hôpital général juif de Montréal. Richard Béliveau est diplômé au baccalauréat en biologie  de l'UQTR en 1976.
-Il est l'auteur de plus de 183[1] publications scientifiques dans des revues médicales à l'échelle internationale. Ses thèmes de recherche sont la prévention et le traitement du cancer, essentiellement par la nutraceutique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est professeur titulaire de biochimie à l'Université du Québec à Montréal depuis 1984, où il est titulaire de la Chaire en Prévention et Traitement du Cancer. Depuis 1996, il est directeur du laboratoire de médecine moléculaire de l'hôpital Sainte-Justine. Il est professeur de chirurgie et professeur de physiologie à la faculté de médecine de l'Université de Montréal. Il est également associé au Centre de Prévention du Cancer du département de l'Université McGill. Il est aussi membre du Groupe de Thérapie Expérimentale du Cancer de l'Hôpital général juif de Montréal. Richard Béliveau est diplômé au baccalauréat en biologie  de l'UQTR en 1976.
+Il est l'auteur de plus de 183 publications scientifiques dans des revues médicales à l'échelle internationale. Ses thèmes de recherche sont la prévention et le traitement du cancer, essentiellement par la nutraceutique.
 Depuis 2010, il est le porte-parole de la Fondation québécoise de la massothérapie, visant à contribuer à l'amélioration de la qualité de vie des patients atteints de cancer, par la massothérapie, une pratique pseudo-scientifique à l'efficacité non démontrée.[citation nécessaire]
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Richard_B%C3%A9liveau</t>
+          <t>Richard_Béliveau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chercheur connu dans le monde scientifique et médical pour ses travaux en oncologie, il est dorénavant bien connu du grand public en raison de ses qualités de vulgarisateur. Il est coauteur avec le chercheur spécialisé en cancérologie Denis Gingras de plusieurs ouvrages.
 Richard Béliveau et Denis Gingras, Les Aliments contre le cancer, Trécarré, 2005 (ISBN 9782895682554)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Richard_B%C3%A9liveau</t>
+          <t>Richard_Béliveau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Collectionneur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2012, le musée Pointe-à-Callières de Montréal, présente une exposition de sa collection personnelle d'armes et d'armures japonaises. À cette occasion, Richard Béliveau a publié La Grâce des guerriers (Libre Expression, 2012  (ISBN 9782764807835))
 </t>
